--- a/moa_outputs/outputs/poker/results.xlsx
+++ b/moa_outputs/outputs/poker/results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,53 +500,72 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.32973035531865</v>
+        <v>68.47211758408055</v>
       </c>
       <c r="C7" t="n">
-        <v>72.32973035531865</v>
+        <v>68.47211758408055</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>13731</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>EDDM</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.12364158137808</v>
+        <v>76.49661972827681</v>
       </c>
       <c r="C8" t="n">
-        <v>73.12364158137808</v>
+        <v>76.49661972827681</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>5259</v>
+        <v>12657</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>STEPD</t>
+          <t>EDDM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.5405522818436</v>
+        <v>73.12364158137808</v>
       </c>
       <c r="C9" t="n">
-        <v>73.5405522818436</v>
+        <v>73.12364158137808</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>STEPD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>73.5405522818436</v>
+      </c>
+      <c r="C10" t="n">
+        <v>73.5405522818436</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
         <v>3868</v>
       </c>
     </row>
